--- a/Arbeitszeiten.xlsx
+++ b/Arbeitszeiten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\FH\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ffaiku/opt/FH/Embeded Systems/Projekt/smart_traffic_light/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A28B42-C7DA-E147-B1DA-1B6F79800730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9972"/>
+    <workbookView xWindow="5940" yWindow="3040" windowWidth="19960" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -102,12 +103,30 @@
   </si>
   <si>
     <t>SPI Testcode zum Schicken eines Zeichen vom Master zum Slave implementieren</t>
+  </si>
+  <si>
+    <t>LCD-Display Intro</t>
+  </si>
+  <si>
+    <t>First Stes into LCD</t>
+  </si>
+  <si>
+    <t>LCD Menue programmieren</t>
+  </si>
+  <si>
+    <t>Modulintegration, Display und Clock; Komplikationen zwischen den Ultraschallsensoren und dem Buzzer ermittlen; Testen; dokumentiren, zweiter Menuepunkt in LCD-Display implementiert</t>
+  </si>
+  <si>
+    <t>Refactor</t>
+  </si>
+  <si>
+    <t>Finalizing Everything</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,9 +167,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -159,6 +175,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,35 +458,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,330 +497,344 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>43774</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>43777</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>43780</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43781</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>43788</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>43789</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>43795</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>43796</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>43802</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>43803</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>43810</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>43829</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>43832</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>43834</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>43836</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>43838</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>43844</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>43845</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>43846</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>43847</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43848</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>43849</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>43850</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Arbeitszeiten.xlsx
+++ b/Arbeitszeiten.xlsx
@@ -65,7 +65,7 @@
       <style:table-cell-properties style:rotation-align="none"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N10125">
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N10127">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
     </style:style>
@@ -92,6 +92,41 @@
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="11pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
     <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:rotation-align="none"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N10127">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="11pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="11pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
@@ -110,37 +145,37 @@
         <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1020" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Datum</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>Tätigkeit</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce8"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Stunden</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce17"/>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Bushra Yasin</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Fitim Faiku</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Ahmed Mohamed</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1020"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-05" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-05" calcext:value-type="date">
             <text:p>11/5/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce20" office:value-type="string" calcext:value-type="string">
             <text:p>Projektplanung</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -149,10 +184,10 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-08" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-08" calcext:value-type="date">
             <text:p>11/8/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce20" office:value-type="string" calcext:value-type="string">
             <text:p>Projektplanung</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -161,19 +196,19 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-11" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-11" calcext:value-type="date">
             <text:p>11/11/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
               <text:s/>
               Ampelsteuerung System (ASS)
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>LCD-Display Intro</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Module(Ultraschallsensoren &amp; Buzzer) mit Testcode mit Hilfe der Arduino IDE Testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -182,16 +217,16 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-12" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-12" calcext:value-type="date">
             <text:p>11/12/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>simulation eines ASS mit Leuchtdioden</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>First Stes into LCD</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Buzzer Code schreiben &amp; testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
@@ -200,16 +235,16 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-19" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-19" calcext:value-type="date">
             <text:p>11/19/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>rtc modul ds1302 testen mit Arduino IDE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>LCD Menue programmieren</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Ultraschallsensor Code schreiben</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -218,14 +253,14 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-20" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-20" calcext:value-type="date">
             <text:p>11/20/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>RTC modul ds1302 programmieren</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Ultraschallsensor Code bearbeiten &amp;testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
@@ -234,40 +269,40 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-24" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-24" calcext:value-type="date">
             <text:p>11/24/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>RTC modul ds1302 code bearbeiten und anpassen für unser Projekt</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-25" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-25" calcext:value-type="date">
             <text:p>11/25/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>programmieren von ersten Codezeilen von SPI</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-26" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-26" calcext:value-type="date">
             <text:p>11/26/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>Löten von den einzelnee Teilen der Ampeln </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Ultraschallsensor Code bearbeiten &amp;testen(messung mittels Osziloskop) Buzzer Code bearbeiten &amp; testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -276,13 +311,13 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-11-27" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-11-27" calcext:value-type="date">
             <text:p>11/27/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string">
             <text:p>ws2812 RGB LEDs testen mit Arduino IDE</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Testcode zum Schicken eines Zeichen vom Master zum Slave implementieren</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -291,13 +326,13 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-12-03" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-12-03" calcext:value-type="date">
             <text:p>12/3/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>ws2812 RGB LEDs programmieren</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Testcode zum schicken eines Zeichen vom Master zum Slave und zurück implementiren </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -306,13 +341,13 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-12-04" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-12-04" calcext:value-type="date">
             <text:p>12/4/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>ws2812 RGB LEDs makefile bearbeiten und powersupply anschließen</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:style-name="ce21"/>
           <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
@@ -320,49 +355,49 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-12-11" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-12-11" calcext:value-type="date">
             <text:p>12/11/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>ws2812 RGB LEDs code veränderen für ein ASS</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-12-19" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-12-19" calcext:value-type="date">
             <text:p>12/19/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>synchronisieren von den zwei Ampeln</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-12-20" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-12-20" calcext:value-type="date">
             <text:p>12/20/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
             <text:p>dokumentiern und kommentieren von RGB / RTC CODE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2019-12-30" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2019-12-30" calcext:value-type="date">
             <text:p>12/30/2019</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
               1. Konzept für die State Maschine 
               <text:s/>
@@ -374,10 +409,10 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-02" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-02" calcext:value-type="date">
             <text:p>1/2/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
               <text:s/>
               Modulintegration, LED Streifen SPI steuern
@@ -389,10 +424,10 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-04" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-04" calcext:value-type="date">
             <text:p>1/4/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme lösen; State Maschine bearbeiten</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -401,10 +436,10 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-06" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-06" calcext:value-type="date">
             <text:p>1/6/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme lösen; State Maschine bearbeiten</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -413,10 +448,10 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-08" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-08" calcext:value-type="date">
             <text:p>1/8/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme lösen; Testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -425,14 +460,14 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-14" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-14" calcext:value-type="date">
             <text:p>1/14/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme beim senden und empfangen eines Zeichens löse </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme beim senden und empfangen eines Zeichens lösen ; Testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
@@ -441,13 +476,13 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro7">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-15" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-15" calcext:value-type="date">
             <text:p>1/15/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Modulintegration, Ultrascahllsensor &amp; Buzzer. Ampel Zyklus in die State Maschine implementiert </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Modulintegration, Ultrascahllsensor &amp; Buzzer. Ampel Zyklus in die State Maschine implementiert ; Testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -456,27 +491,27 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-15" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-15" calcext:value-type="date">
             <text:p>1/15/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Fußgänger-Ampel und PKW-Ampel modulieren</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-16" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-16" calcext:value-type="date">
             <text:p>1/16/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme beim senden und empfangen eines Zeichens löse </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>SPI Probleme beim senden und empfangen eines Zeichens lösen Testen</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
@@ -485,10 +520,10 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-17" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-17" calcext:value-type="date">
             <text:p>1/17/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Ampelzyklus fertigstellen und testen </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
@@ -497,14 +532,14 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro8">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-18" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-18" calcext:value-type="date">
             <text:p>1/18/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Modulintegration, Display und Clock; Komplikationen zwischen den Ultraschallsensoren und dem Buzzer ermittlen; Testen; dokumentiren, zweiter Menuepunkt in LCD-Display implementiert</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Modulintegration, Display und Clock; Komplikationen zwischen den Ultraschallsensoren und dem Buzzer ermittlen; Testen; dokumentiren</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
@@ -513,16 +548,16 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-19" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-19" calcext:value-type="date">
             <text:p>1/19/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Präsentation vorbereiten</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Refactor</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Komplikationen zwischen den Ultraschallsensoren und dem Buzzer ermittlen; Testen, dokumentieren</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
@@ -531,16 +566,16 @@
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce2" office:value-type="date" office:date-value="2020-01-20" calcext:value-type="date">
+          <table:table-cell table:style-name="ce18" office:value-type="date" office:date-value="2020-01-20" calcext:value-type="date">
             <text:p>1/20/2020</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>letzte Besprechung &amp; TEST </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Finalizing Everything</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:style-name="ce21"/>
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
@@ -593,7 +628,7 @@
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Tabelle1">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -643,8 +678,8 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">hQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMApgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
           <config:config-item config:name="Language" config:type="string">en</config:config-item>
@@ -716,25 +751,12 @@
     <number:number-style style:name="N124">
       <number:scientific-number number:decimal-places="1" loext:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" loext:exponent-interval="3" loext:forced-exponent-sign="true"/>
     </number:number-style>
-    <number:currency-style style:name="N10121P0" style:volatile="true" number:language="en" number:country="US">
+    <number:currency-style style:name="N10122P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10121" number:language="en" number:country="US">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10122P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
     <number:currency-style style:name="N10122" number:language="en" number:country="US">
-      <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
@@ -743,73 +765,72 @@
     </number:currency-style>
     <number:currency-style style:name="N10123P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10123" number:language="en" number:country="US">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10123P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10125P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10123" number:language="en" number:country="US">
+    <number:currency-style style:name="N10125" number:language="en" number:country="US">
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10123P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10124P0" style:volatile="true" number:language="en" number:country="US">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10125P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10126P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10124" number:language="en" number:country="US">
+    <number:currency-style style:name="N10126" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10124P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N10125" number:language="en" number:country="US">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10126P0"/>
+    </number:currency-style>
+    <number:date-style style:name="N10127" number:language="en" number:country="US">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N10126" number:language="en" number:country="US">
+    <number:date-style style:name="N10128" number:language="en" number:country="US">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N10127" number:language="en" number:country="US">
+    <number:date-style style:name="N10129" number:language="en" number:country="US">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N10128" number:language="en" number:country="US">
+    <number:date-style style:name="N10130" number:language="en" number:country="US">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N10129" number:language="en" number:country="US">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N10130" number:language="en" number:country="US">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
     <number:time-style style:name="N10131" number:language="en" number:country="US">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
     <number:time-style style:name="N10132" number:language="en" number:country="US">
       <number:hours/>
@@ -817,8 +838,22 @@
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
-    <number:date-style style:name="N10133" number:language="en" number:country="US">
+    <number:time-style style:name="N10133" number:language="en" number:country="US">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N10134" number:language="en" number:country="US">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:date-style style:name="N10135" number:language="en" number:country="US">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
@@ -829,141 +864,135 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:number-style style:name="N10134P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10137P0" style:volatile="true" number:language="en" number:country="US">
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10134" number:language="en" number:country="US">
+    <number:number-style style:name="N10137" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10134P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10137P0"/>
     </number:number-style>
-    <number:number-style style:name="N10135P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10139P0" style:volatile="true" number:language="en" number:country="US">
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10135" number:language="en" number:country="US">
+    <number:number-style style:name="N10139" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10135P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10139P0"/>
     </number:number-style>
-    <number:number-style style:name="N10136P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10143P0" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10136P1" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10143P1" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N10136P2" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10143P2" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:number-style>
-    <number:text-style style:name="N10136" number:language="en" number:country="US">
+    <number:text-style style:name="N10143" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10136P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10143P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10143P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10143P2"/>
     </number:text-style>
-    <number:currency-style style:name="N10137P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10147P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10137P1" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10147P1" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10137P2" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10147P2" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:currency-style>
-    <number:text-style style:name="N10137" number:language="en" number:country="US">
+    <number:text-style style:name="N10147" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10137P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10147P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10147P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10147P2"/>
     </number:text-style>
-    <number:number-style style:name="N10138P0" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10151P0" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N10138P1" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10151P1" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N10138P2" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10151P2" style:volatile="true" number:language="en" number:country="US">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N10138" number:language="en" number:country="US">
+    <number:text-style style:name="N10151" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10138P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10151P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10151P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10151P2"/>
     </number:text-style>
-    <number:currency-style style:name="N10139P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10155P0" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10139P1" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10155P1" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:currency-style>
-    <number:currency-style style:name="N10139P2" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10155P2" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:text-style style:name="N10139" number:language="en" number:country="US">
+    <number:text-style style:name="N10155" number:language="en" number:country="US">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10139P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10139P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10139P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10155P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10155P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10155P2"/>
     </number:text-style>
     <style:style style:name="Default" style:family="table-cell">
       <style:table-cell-properties style:rotation-align="none" style:vertical-align="bottom"/>
@@ -1088,7 +1117,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2020-01-20">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="17:42:03.394113318">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
